--- a/data/trans_orig/P05A04-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>490964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>474991</v>
+        <v>473632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>505253</v>
+        <v>507384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8616870135147066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8336530522931823</v>
+        <v>0.8312664750256096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8867652259082758</v>
+        <v>0.8905058464363732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>774</v>
@@ -765,19 +765,19 @@
         <v>800987</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>780609</v>
+        <v>778043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>820644</v>
+        <v>821296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8772679512572003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8549491588790312</v>
+        <v>0.8521388768903203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.898797645458042</v>
+        <v>0.8995115630160891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1254</v>
@@ -786,19 +786,19 @@
         <v>1291951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1265481</v>
+        <v>1266641</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1317933</v>
+        <v>1317537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8712809927660194</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8534294702333963</v>
+        <v>0.8542117481526846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8888028102246925</v>
+        <v>0.8885357894408487</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>67734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54484</v>
+        <v>51587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82521</v>
+        <v>83717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.118878515855174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09562429749584778</v>
+        <v>0.09053932830830239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1448324511758134</v>
+        <v>0.1469314100726719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -836,19 +836,19 @@
         <v>90852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74757</v>
+        <v>72663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112170</v>
+        <v>114332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09950383350574785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08187667901700599</v>
+        <v>0.0795825325870318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1228527973574641</v>
+        <v>0.1252203519386471</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -857,19 +857,19 @@
         <v>158585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134931</v>
+        <v>135271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183382</v>
+        <v>185357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1069485342627167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09099638177885272</v>
+        <v>0.09122586370504711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1236714878341501</v>
+        <v>0.1250032515663776</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>11073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5911</v>
+        <v>5831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19105</v>
+        <v>18628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01943447063011943</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01037424100384703</v>
+        <v>0.01023478008951363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03353098513773768</v>
+        <v>0.0326933956275301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -907,19 +907,19 @@
         <v>21208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12682</v>
+        <v>12927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31951</v>
+        <v>32432</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02322821523705193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01388936177130025</v>
+        <v>0.01415833673021176</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03499429169041631</v>
+        <v>0.03552099112131808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -928,19 +928,19 @@
         <v>32282</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22689</v>
+        <v>22467</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45797</v>
+        <v>45361</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02177047297126384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01530111909063619</v>
+        <v>0.01515150855634114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03088536767981092</v>
+        <v>0.03059085336007308</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>962461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>940819</v>
+        <v>942152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>981152</v>
+        <v>980723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8980708866802574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8778773705419302</v>
+        <v>0.879120530973093</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9155119487029726</v>
+        <v>0.9151118063249385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>913</v>
@@ -1053,19 +1053,19 @@
         <v>939133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>917053</v>
+        <v>919871</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>957638</v>
+        <v>959265</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8967437065759725</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8756602895617517</v>
+        <v>0.8783513637138137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9144137679278346</v>
+        <v>0.9159669447579849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1855</v>
@@ -1074,19 +1074,19 @@
         <v>1901594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872437</v>
+        <v>1869792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1928505</v>
+        <v>1927929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8974149467730163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8836549968758368</v>
+        <v>0.8824069361582214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9101152655394412</v>
+        <v>0.9098435485214913</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>92617</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76020</v>
+        <v>74399</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111980</v>
+        <v>111641</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08642043323242334</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0709345578648351</v>
+        <v>0.06942193251280802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1044884688118117</v>
+        <v>0.1041719305488015</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>86</v>
@@ -1124,19 +1124,19 @@
         <v>87760</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71685</v>
+        <v>70060</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106777</v>
+        <v>105094</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08379919430128721</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06844915675976532</v>
+        <v>0.06689799065185209</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1019575830628548</v>
+        <v>0.1003508511876818</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -1145,19 +1145,19 @@
         <v>180377</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>155422</v>
+        <v>154450</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>208195</v>
+        <v>207233</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08512492313865758</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0733480301394311</v>
+        <v>0.07288909563122778</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09825313922515271</v>
+        <v>0.09779881966671634</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>16621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9618</v>
+        <v>9478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27836</v>
+        <v>26919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01550868008731933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008974472324863227</v>
+        <v>0.008844015188302469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02597339862601123</v>
+        <v>0.02511784670882633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1195,19 +1195,19 @@
         <v>20377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12906</v>
+        <v>12408</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30191</v>
+        <v>30303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01945709912274029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01232302352385482</v>
+        <v>0.01184753934712049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02882844017188651</v>
+        <v>0.02893514049421697</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1216,19 +1216,19 @@
         <v>36997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26652</v>
+        <v>27321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50796</v>
+        <v>52491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01746013008832615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01257785043895458</v>
+        <v>0.01289374038797778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02397220614014546</v>
+        <v>0.02477186296220571</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>1018159</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>997829</v>
+        <v>998607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1035333</v>
+        <v>1034958</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9130365494400822</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8948058371475868</v>
+        <v>0.8955034519170417</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9284374946780007</v>
+        <v>0.9281008517580127</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>882</v>
@@ -1341,19 +1341,19 @@
         <v>887215</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>867359</v>
+        <v>866610</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>903950</v>
+        <v>904660</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.902947922396546</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8827395846643993</v>
+        <v>0.8819772821130809</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9199795575648713</v>
+        <v>0.9207024071441036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1885</v>
@@ -1362,19 +1362,19 @@
         <v>1905374</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1876800</v>
+        <v>1878710</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1930024</v>
+        <v>1930462</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9083109965044299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8946894442752518</v>
+        <v>0.8956001031587669</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9200617938970134</v>
+        <v>0.9202705799988629</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>79115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62498</v>
+        <v>64144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96768</v>
+        <v>96895</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07094612325398825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05604526222541179</v>
+        <v>0.0575214698822472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08677674728582956</v>
+        <v>0.08689069700450197</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1412,19 +1412,19 @@
         <v>72257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57052</v>
+        <v>57023</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89696</v>
+        <v>90513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07353881215815669</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05806325140035899</v>
+        <v>0.05803425364850735</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09128688362157913</v>
+        <v>0.09211782969550085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -1433,19 +1433,19 @@
         <v>151372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129137</v>
+        <v>128505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177124</v>
+        <v>176761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07216054902366482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06156090906483037</v>
+        <v>0.06125951632334653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08443679696465475</v>
+        <v>0.08426396163997181</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>17861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10910</v>
+        <v>10567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28473</v>
+        <v>28364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01601732730592955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009783539997951275</v>
+        <v>0.009475714495916906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.025532812428806</v>
+        <v>0.02543542398493986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1483,19 +1483,19 @@
         <v>23104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15148</v>
+        <v>14795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35822</v>
+        <v>35125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02351326544529732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01541666728670396</v>
+        <v>0.0150577317283418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03645726080921109</v>
+        <v>0.03574760814466463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -1504,19 +1504,19 @@
         <v>40965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30282</v>
+        <v>31145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55046</v>
+        <v>55948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01952845447190529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01443557456821648</v>
+        <v>0.01484727728768464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02624084272556936</v>
+        <v>0.02667098101858199</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>389105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>374734</v>
+        <v>375025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>401885</v>
+        <v>402849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8808652598427681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.848330159275242</v>
+        <v>0.8489899489355414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9097958333471294</v>
+        <v>0.9119778248519728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>305</v>
@@ -1629,19 +1629,19 @@
         <v>306031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>295365</v>
+        <v>294113</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>315680</v>
+        <v>315497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.902356302108289</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.870909028844258</v>
+        <v>0.8672172130765378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9308086713762068</v>
+        <v>0.9302682924600427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>685</v>
@@ -1650,19 +1650,19 @@
         <v>695136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>676610</v>
+        <v>673372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>712278</v>
+        <v>711266</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8901991248777418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.866474744669067</v>
+        <v>0.862327967709834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9121510792965659</v>
+        <v>0.9108557415064091</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>40980</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29875</v>
+        <v>29412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54290</v>
+        <v>54927</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09277197757641914</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06763137948660856</v>
+        <v>0.06658301926173328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1229019076504443</v>
+        <v>0.1243440758301214</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1700,19 +1700,19 @@
         <v>25162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16436</v>
+        <v>17130</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35991</v>
+        <v>35233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07419328477353897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04846335058740878</v>
+        <v>0.0505099880892434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1061221102386235</v>
+        <v>0.1038860208148961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1721,19 +1721,19 @@
         <v>66143</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51259</v>
+        <v>51289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84043</v>
+        <v>85533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08470298729638366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06564322265163526</v>
+        <v>0.06568157875491781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1076266760257866</v>
+        <v>0.1095340404369841</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>11645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5909</v>
+        <v>5926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20628</v>
+        <v>19968</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02636276258081274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01337732171823892</v>
+        <v>0.01341551547527831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04669913355935302</v>
+        <v>0.0452043052519334</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1771,19 +1771,19 @@
         <v>7953</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3869</v>
+        <v>3710</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15283</v>
+        <v>14964</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02345041311817205</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01140785440209333</v>
+        <v>0.01093883903277743</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04506342346605662</v>
+        <v>0.04412370013296653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1792,19 +1792,19 @@
         <v>19598</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11595</v>
+        <v>12440</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29853</v>
+        <v>31324</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02509788782587459</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01484928515301238</v>
+        <v>0.01593092740846427</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03823052650286719</v>
+        <v>0.0401141391335474</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2860690</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2822438</v>
+        <v>2820187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2892839</v>
+        <v>2894389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8944308618852711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8824709575469075</v>
+        <v>0.8817673819122401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9044829196959252</v>
+        <v>0.9049673562321847</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2874</v>
@@ -1917,19 +1917,19 @@
         <v>2933364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2897217</v>
+        <v>2894466</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2970753</v>
+        <v>2968203</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8937630364572084</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8827494782757299</v>
+        <v>0.8819111527067353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.905154938026713</v>
+        <v>0.9043780873041471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5679</v>
@@ -1938,19 +1938,19 @@
         <v>5794054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5742134</v>
+        <v>5742722</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5842117</v>
+        <v>5846772</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8940926361998879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8860807716749219</v>
+        <v>0.8861715710220391</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9015094272505096</v>
+        <v>0.902227624036157</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>280445</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>251183</v>
+        <v>247870</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>316995</v>
+        <v>314040</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08768465955565329</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07853546423129992</v>
+        <v>0.07749980415258272</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09911247387986577</v>
+        <v>0.0981886969399922</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>258</v>
@@ -1988,19 +1988,19 @@
         <v>276032</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>239584</v>
+        <v>245565</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>307936</v>
+        <v>310686</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08410377942259802</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07299867388930405</v>
+        <v>0.07482077608810957</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09382467473091882</v>
+        <v>0.09466245358284345</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>532</v>
@@ -2009,19 +2009,19 @@
         <v>556477</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>512888</v>
+        <v>510241</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>604530</v>
+        <v>603825</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08587109333552419</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0791447586345775</v>
+        <v>0.07873631421723105</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09328626267555507</v>
+        <v>0.09317757442985368</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>57201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43394</v>
+        <v>43431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76053</v>
+        <v>74035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01788447855907558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01356774532083161</v>
+        <v>0.01357921521739272</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02377890299310476</v>
+        <v>0.02314800163311543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2059,19 +2059,19 @@
         <v>72642</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57577</v>
+        <v>57339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91576</v>
+        <v>91362</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02213318412019352</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01754314895848385</v>
+        <v>0.01747043392309934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02790207699064813</v>
+        <v>0.02783698549732337</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2080,19 +2080,19 @@
         <v>129843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107611</v>
+        <v>108929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156437</v>
+        <v>156819</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02003627046458788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01660567258948337</v>
+        <v>0.0168089910146565</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02414007545312338</v>
+        <v>0.02419908742242021</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>894089</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>869986</v>
+        <v>870151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>916109</v>
+        <v>915632</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.863125781437412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8398575497950493</v>
+        <v>0.8400169300451439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8843834512488538</v>
+        <v>0.8839225784991048</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>902</v>
@@ -2445,19 +2445,19 @@
         <v>978527</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>953920</v>
+        <v>953380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1000434</v>
+        <v>998540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8786904009282189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8565941029924724</v>
+        <v>0.8561088484202743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.898361852213874</v>
+        <v>0.8966614064516958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1743</v>
@@ -2466,19 +2466,19 @@
         <v>1872616</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1836340</v>
+        <v>1835350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1903128</v>
+        <v>1902673</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8711895780404291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8543130185866579</v>
+        <v>0.8538524505584695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8853843940853146</v>
+        <v>0.8851726989539763</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>97596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78850</v>
+        <v>79934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117174</v>
+        <v>117590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09421576526409492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07611901985804118</v>
+        <v>0.07716557307665188</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1131160348022099</v>
+        <v>0.1135180422114216</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -2516,19 +2516,19 @@
         <v>107559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88852</v>
+        <v>89918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129344</v>
+        <v>128980</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09658468274570246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07978643678098324</v>
+        <v>0.08074427416140867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1161470765948135</v>
+        <v>0.1158207835192568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -2537,19 +2537,19 @@
         <v>205154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178040</v>
+        <v>178176</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237465</v>
+        <v>235687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09544306598624216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08282871322599512</v>
+        <v>0.08289190005333219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1104750080497933</v>
+        <v>0.10964781836406</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>44189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30570</v>
+        <v>31674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60233</v>
+        <v>60517</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04265845329849306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02951173805899301</v>
+        <v>0.03057739000256898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05814698332064295</v>
+        <v>0.0584211987295857</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -2587,19 +2587,19 @@
         <v>27534</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16867</v>
+        <v>18159</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39959</v>
+        <v>39783</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02472491632607857</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01514592720824179</v>
+        <v>0.01630639072565341</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03588232874552504</v>
+        <v>0.03572438991396472</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -2608,19 +2608,19 @@
         <v>71723</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55671</v>
+        <v>55381</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92017</v>
+        <v>90859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03336735597332881</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02589962255388423</v>
+        <v>0.02576451550694097</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04280880050766461</v>
+        <v>0.0422701936294359</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>899121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>880252</v>
+        <v>879011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914562</v>
+        <v>915156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9244688780010358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9050679096058039</v>
+        <v>0.9037924652777464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9403450969553028</v>
+        <v>0.9409556211279092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>927</v>
@@ -2733,19 +2733,19 @@
         <v>996582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977419</v>
+        <v>978289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014455</v>
+        <v>1014621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.919151188870778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9014766141144439</v>
+        <v>0.9022790244372845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9356356221589854</v>
+        <v>0.935788687254567</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1779</v>
@@ -2754,19 +2754,19 @@
         <v>1895703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1868134</v>
+        <v>1867170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1920536</v>
+        <v>1918280</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9216656894464454</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9082619203844527</v>
+        <v>0.9077933783452156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9337391849615312</v>
+        <v>0.9326423937048273</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>61785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47934</v>
+        <v>48077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79556</v>
+        <v>81825</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06352677202695087</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04928514308804698</v>
+        <v>0.04943266846603892</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08179929435140508</v>
+        <v>0.08413173064093567</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -2804,19 +2804,19 @@
         <v>70301</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>54286</v>
+        <v>54674</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>87088</v>
+        <v>87658</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06483921011589622</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05006772228152604</v>
+        <v>0.05042571089623939</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.080321895244419</v>
+        <v>0.08084743245700421</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>123</v>
@@ -2825,19 +2825,19 @@
         <v>132086</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>109405</v>
+        <v>110346</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>156218</v>
+        <v>159257</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0642186160478069</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05319145110749704</v>
+        <v>0.05364899282546264</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07595111503942661</v>
+        <v>0.07742886336208306</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>11675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5984</v>
+        <v>5880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19732</v>
+        <v>19199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01200434997201331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00615300939571429</v>
+        <v>0.006045765745056414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02028864848878197</v>
+        <v>0.0197398523199947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2875,19 +2875,19 @@
         <v>17358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10358</v>
+        <v>10391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28001</v>
+        <v>28183</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01600960101332582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009553523419287112</v>
+        <v>0.0095839739339316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02582583214599606</v>
+        <v>0.02599356722194597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -2896,19 +2896,19 @@
         <v>29033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20094</v>
+        <v>19634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41751</v>
+        <v>41338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01411569450574761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009769310021104337</v>
+        <v>0.009545742097985643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02029853876031432</v>
+        <v>0.02009808634223974</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>825348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>808427</v>
+        <v>810565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>837973</v>
+        <v>838462</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9391941181434639</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9199388105483035</v>
+        <v>0.9223723049749375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9535606215478839</v>
+        <v>0.9541176883291149</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>766</v>
@@ -3021,19 +3021,19 @@
         <v>818551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>804868</v>
+        <v>804122</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>831813</v>
+        <v>830510</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9474118091214186</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9315747620478676</v>
+        <v>0.9307104339946478</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.962761116557835</v>
+        <v>0.961253421073996</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1540</v>
@@ -3042,19 +3042,19 @@
         <v>1643899</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1620649</v>
+        <v>1623055</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1660604</v>
+        <v>1661334</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9432680808905608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9299272057469501</v>
+        <v>0.9313076059136529</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9528529691579725</v>
+        <v>0.9532720582606845</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>45151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33045</v>
+        <v>33091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59986</v>
+        <v>60666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05137873206124518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03760321198721045</v>
+        <v>0.0376550278695366</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06826039092874714</v>
+        <v>0.06903463959283844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3092,19 +3092,19 @@
         <v>39838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28078</v>
+        <v>28705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54256</v>
+        <v>53244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04610999337239415</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03249789173041631</v>
+        <v>0.03322332795390359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06279751167360759</v>
+        <v>0.06162645971351694</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -3113,19 +3113,19 @@
         <v>84989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69941</v>
+        <v>69046</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106100</v>
+        <v>105536</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04876672764295428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04013223066655383</v>
+        <v>0.03961837923958526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06087998830422753</v>
+        <v>0.06055640746080428</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>8284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3736</v>
+        <v>3961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15621</v>
+        <v>16396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009427149795290952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004251139652293907</v>
+        <v>0.004507216702593348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01777625372905023</v>
+        <v>0.01865802180102894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3163,19 +3163,19 @@
         <v>5597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1904</v>
+        <v>1929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11091</v>
+        <v>12257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006478197506187191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002204035235639247</v>
+        <v>0.002232645050949111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01283732533410104</v>
+        <v>0.01418700154351231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -3184,19 +3184,19 @@
         <v>13881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7919</v>
+        <v>8638</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23097</v>
+        <v>22375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007965191466484969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004544094031399206</v>
+        <v>0.00495670607074885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01325301734040334</v>
+        <v>0.01283867514701193</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>467527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454957</v>
+        <v>454990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>477112</v>
+        <v>476770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9453654658241026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9199493761035092</v>
+        <v>0.9200157009445612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.964747175475937</v>
+        <v>0.964054974318509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>376</v>
@@ -3309,19 +3309,19 @@
         <v>413698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>399698</v>
+        <v>399991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424007</v>
+        <v>423461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9253317588951852</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8940168725273306</v>
+        <v>0.8946728790010792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9483901761466497</v>
+        <v>0.9471694896068505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -3330,19 +3330,19 @@
         <v>881225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>862263</v>
+        <v>863708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>894848</v>
+        <v>895585</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9358535432346684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9157156965358889</v>
+        <v>0.9172504376574856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9503206886642994</v>
+        <v>0.9511037358778561</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>23304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15126</v>
+        <v>14312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36050</v>
+        <v>35591</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04712243617911875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03058472120208149</v>
+        <v>0.02893884749707204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07289515534946643</v>
+        <v>0.07196729006523857</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -3380,19 +3380,19 @@
         <v>23978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15705</v>
+        <v>15871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36529</v>
+        <v>35747</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05363197592856492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03512883732635168</v>
+        <v>0.03549878488313001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08170634052855164</v>
+        <v>0.07995700802834833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -3401,19 +3401,19 @@
         <v>47282</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34839</v>
+        <v>35178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65291</v>
+        <v>63194</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05021313918327428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03699872877157967</v>
+        <v>0.03735851115445751</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06933901643640689</v>
+        <v>0.06711109990123958</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>3715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9222</v>
+        <v>9237</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007512097996778636</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001884259717125872</v>
+        <v>0.001882517288807114</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01864814906904948</v>
+        <v>0.01867807898193997</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -3451,19 +3451,19 @@
         <v>9405</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4569</v>
+        <v>4780</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18485</v>
+        <v>18125</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02103626517624989</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01021940419291157</v>
+        <v>0.01069051265421923</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04134667043391118</v>
+        <v>0.04053992943787053</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -3472,19 +3472,19 @@
         <v>13120</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7369</v>
+        <v>7518</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22470</v>
+        <v>22712</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01393331758205726</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007825722026976052</v>
+        <v>0.007983633890176417</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02386344964984298</v>
+        <v>0.02411944216933798</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>3086084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3049770</v>
+        <v>3047040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3119586</v>
+        <v>3120279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.912561243890517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9018231648790517</v>
+        <v>0.9010158387418843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9224678792220503</v>
+        <v>0.9226728656853053</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2971</v>
@@ -3597,19 +3597,19 @@
         <v>3207360</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3172228</v>
+        <v>3172010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3242345</v>
+        <v>3239139</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.914056210958044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9040439579230783</v>
+        <v>0.9039818044876038</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9240264257011669</v>
+        <v>0.9231127952692499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5870</v>
@@ -3618,19 +3618,19 @@
         <v>6293444</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6245735</v>
+        <v>6242955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6341591</v>
+        <v>6339104</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9133225199958015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9063987659438076</v>
+        <v>0.9059953882178664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9203097682454029</v>
+        <v>0.9199488468005678</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>227835</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>199107</v>
+        <v>200241</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>260717</v>
+        <v>263485</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06737140225314708</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05887646983934038</v>
+        <v>0.05921155678567039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07709445860255384</v>
+        <v>0.07791308515111046</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>226</v>
@@ -3668,19 +3668,19 @@
         <v>241676</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>208854</v>
+        <v>212403</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>270540</v>
+        <v>273792</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06887464470697525</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05952073165361477</v>
+        <v>0.06053197001613588</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07710031376813886</v>
+        <v>0.0780272342757449</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>436</v>
@@ -3689,19 +3689,19 @@
         <v>469512</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>427192</v>
+        <v>427439</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>511897</v>
+        <v>513730</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06813689240032589</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06199533323959681</v>
+        <v>0.06203118155181114</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07428801868118323</v>
+        <v>0.07455393395264812</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>67863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51889</v>
+        <v>50934</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87845</v>
+        <v>85299</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02006735385633595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01534363225735442</v>
+        <v>0.0150613468762214</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02597597448311075</v>
+        <v>0.02522307212296004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -3739,19 +3739,19 @@
         <v>59894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46186</v>
+        <v>45363</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77715</v>
+        <v>78957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01706914433498077</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01316239502887291</v>
+        <v>0.01292778000934826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02214763715853324</v>
+        <v>0.02250164799237727</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -3760,19 +3760,19 @@
         <v>127758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104698</v>
+        <v>106095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151447</v>
+        <v>152258</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01854058760387257</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01519406006121537</v>
+        <v>0.01539682951848587</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02197845766286152</v>
+        <v>0.02209610409882314</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>965336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>940269</v>
+        <v>938342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>988970</v>
+        <v>987775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8603376356992316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8379975493066335</v>
+        <v>0.8362799344864977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8814008154816855</v>
+        <v>0.8803363213315288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1037</v>
@@ -4125,19 +4125,19 @@
         <v>1097857</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1070483</v>
+        <v>1072664</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1118584</v>
+        <v>1120554</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8839503663014708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8619102155538764</v>
+        <v>0.8636663359941968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9006392113980677</v>
+        <v>0.9022250071831358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1952</v>
@@ -4146,19 +4146,19 @@
         <v>2063192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2024847</v>
+        <v>2026842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2091474</v>
+        <v>2095027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8727430329705186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8565225633949836</v>
+        <v>0.8573664899521876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8847061650319011</v>
+        <v>0.8862093243166302</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>111704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90572</v>
+        <v>92231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>131858</v>
+        <v>133957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0995543084123056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08072092555530085</v>
+        <v>0.08219893230052891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1175163095011324</v>
+        <v>0.1193863788560328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -4196,19 +4196,19 @@
         <v>112776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94364</v>
+        <v>94469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136094</v>
+        <v>136883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0908031135143368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07597849033164704</v>
+        <v>0.0760629463308658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1095773262794037</v>
+        <v>0.1102131267388683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -4217,19 +4217,19 @@
         <v>224481</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197536</v>
+        <v>196650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258032</v>
+        <v>255859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0949567016747999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08355879667444273</v>
+        <v>0.08318423844242818</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1091490732560818</v>
+        <v>0.1082297356314768</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>45003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32990</v>
+        <v>32355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62068</v>
+        <v>61643</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04010805588846274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02940176146468446</v>
+        <v>0.02883574373678727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05531700568013223</v>
+        <v>0.05493785818540577</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -4267,19 +4267,19 @@
         <v>31356</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20942</v>
+        <v>20986</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43375</v>
+        <v>43200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02524652018419239</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01686184915097756</v>
+        <v>0.01689727019183431</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03492416479503813</v>
+        <v>0.03478257495439679</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -4288,19 +4288,19 @@
         <v>76359</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59943</v>
+        <v>57318</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96819</v>
+        <v>94351</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03230026535468157</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02535644142646232</v>
+        <v>0.02424582751527719</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04095485134842924</v>
+        <v>0.0399109294676058</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>779786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757767</v>
+        <v>757834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>799947</v>
+        <v>800480</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8672301658554606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8427419350689607</v>
+        <v>0.8428160873583098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.889651601217942</v>
+        <v>0.8902444309124434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>827</v>
@@ -4413,19 +4413,19 @@
         <v>873987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>850275</v>
+        <v>852675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>895139</v>
+        <v>895173</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.874045860860577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8503317957504627</v>
+        <v>0.8527325206551035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8951987107418656</v>
+        <v>0.8952324992378168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1586</v>
@@ -4434,19 +4434,19 @@
         <v>1653774</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1621774</v>
+        <v>1621047</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1679968</v>
+        <v>1682041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.870818830327229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8539689465177452</v>
+        <v>0.8535858495887905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8846118576384491</v>
+        <v>0.885703234555653</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>92237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74111</v>
+        <v>74239</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111807</v>
+        <v>112231</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1025798393245397</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08242195740497775</v>
+        <v>0.08256422965114085</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1243452817732467</v>
+        <v>0.1248163836612046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>83</v>
@@ -4484,19 +4484,19 @@
         <v>88825</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72133</v>
+        <v>71120</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109465</v>
+        <v>108037</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08883081866502203</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07213797303904296</v>
+        <v>0.07112479086128572</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1094726196324909</v>
+        <v>0.1080438913612628</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -4505,19 +4505,19 @@
         <v>181061</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158326</v>
+        <v>157564</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>207496</v>
+        <v>210155</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09534057437424762</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08336878135329746</v>
+        <v>0.08296745709508485</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1092601501044799</v>
+        <v>0.1106600611964654</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>27146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17925</v>
+        <v>17747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38830</v>
+        <v>38392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03018999481999967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01993510568681642</v>
+        <v>0.01973659685111275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04318395106514422</v>
+        <v>0.04269740855720998</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -4555,19 +4555,19 @@
         <v>37121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25220</v>
+        <v>26464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49115</v>
+        <v>50436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03712332047440092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02522127787914831</v>
+        <v>0.0264655454542075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04911877937353926</v>
+        <v>0.0504397124996962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -4576,19 +4576,19 @@
         <v>64267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50203</v>
+        <v>49614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81951</v>
+        <v>82461</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03384059529852339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0264351741234016</v>
+        <v>0.026125077028449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04315231029490801</v>
+        <v>0.04342102125366607</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>761267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>744870</v>
+        <v>745751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>775029</v>
+        <v>774166</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9334076127891419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.913302987190428</v>
+        <v>0.9143833098657127</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9502813762750699</v>
+        <v>0.9492239957574455</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>658</v>
@@ -4701,19 +4701,19 @@
         <v>697208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>680717</v>
+        <v>680021</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>712954</v>
+        <v>711650</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9104591413355768</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8889240716697882</v>
+        <v>0.8880156886581857</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9310219086379663</v>
+        <v>0.9293186173632251</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1389</v>
@@ -4722,19 +4722,19 @@
         <v>1458474</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1436618</v>
+        <v>1432856</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1478880</v>
+        <v>1479377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9222947414722666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9084731335660543</v>
+        <v>0.9060945394560083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9351987846327386</v>
+        <v>0.9355129191149448</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>39437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26975</v>
+        <v>28844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54716</v>
+        <v>54392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04835515030161285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03307423104223585</v>
+        <v>0.03536583265491499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0670889985850156</v>
+        <v>0.06669100360503927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -4772,19 +4772,19 @@
         <v>41404</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30463</v>
+        <v>30693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55718</v>
+        <v>55692</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05406841905580519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03978010058212057</v>
+        <v>0.04008029014921193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07276076432789934</v>
+        <v>0.07272632474405967</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -4793,19 +4793,19 @@
         <v>80842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64161</v>
+        <v>64362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101109</v>
+        <v>102054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05112181912278178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04057361458002283</v>
+        <v>0.04070077964098742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.063938060371993</v>
+        <v>0.06453562254797612</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>14874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8856</v>
+        <v>8027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24027</v>
+        <v>23815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01823723690924532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01085800623327028</v>
+        <v>0.009841708528062917</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02945958295208954</v>
+        <v>0.02920012244753036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -4843,19 +4843,19 @@
         <v>27164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17650</v>
+        <v>17561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39679</v>
+        <v>38789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03547243960861802</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0230478758595789</v>
+        <v>0.02293168962486576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05181594170766793</v>
+        <v>0.05065301656612031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -4864,19 +4864,19 @@
         <v>42038</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31404</v>
+        <v>30209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56299</v>
+        <v>56432</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02658343940495161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01985907339450617</v>
+        <v>0.01910300142148761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03560182200158812</v>
+        <v>0.03568556502096301</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>467496</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>453878</v>
+        <v>454776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>477133</v>
+        <v>478210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9336804866461889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.906482960952824</v>
+        <v>0.9082770163222942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9529284553416137</v>
+        <v>0.9550798745849776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>417</v>
@@ -4989,19 +4989,19 @@
         <v>446593</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>432320</v>
+        <v>431608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>459617</v>
+        <v>457363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.919586390833228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8901970821966871</v>
+        <v>0.8887322897454554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.946404657632772</v>
+        <v>0.9417640408925338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>852</v>
@@ -5010,19 +5010,19 @@
         <v>914089</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>896411</v>
+        <v>895405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>930367</v>
+        <v>928951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9267410169153165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9088184876845787</v>
+        <v>0.9077980971782968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9432444012843519</v>
+        <v>0.9418085891130796</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>25081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16168</v>
+        <v>16096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36503</v>
+        <v>36603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05009259988599366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03229000195244691</v>
+        <v>0.03214642383959807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07290445878177593</v>
+        <v>0.07310391256057568</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -5060,19 +5060,19 @@
         <v>26843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17180</v>
+        <v>17285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39583</v>
+        <v>39169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0552736191007225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03537662560025664</v>
+        <v>0.03559198102631445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0815063149618042</v>
+        <v>0.08065387499995563</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -5081,19 +5081,19 @@
         <v>51925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38420</v>
+        <v>39701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69377</v>
+        <v>68083</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05264356353011877</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03895161102601293</v>
+        <v>0.04025075676435294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07033679442270105</v>
+        <v>0.06902559594856067</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>8125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3776</v>
+        <v>3135</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17226</v>
+        <v>16385</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01622691346781746</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007541136813406165</v>
+        <v>0.006261887677534794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03440316782993378</v>
+        <v>0.0327243471432083</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -5131,19 +5131,19 @@
         <v>12209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6371</v>
+        <v>7080</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22351</v>
+        <v>22390</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02513999006604946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01311942101155751</v>
+        <v>0.01457808421274094</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04602230582241756</v>
+        <v>0.04610370192776367</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -5152,19 +5152,19 @@
         <v>20334</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12914</v>
+        <v>12577</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32553</v>
+        <v>32505</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02061541955456474</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01309297974948749</v>
+        <v>0.01275093768014373</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03300366260932635</v>
+        <v>0.03295493539793028</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2973885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2939128</v>
+        <v>2936158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3006492</v>
+        <v>3011520</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8910537429281988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8806395846831967</v>
+        <v>0.8797498842217272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9008237701804186</v>
+        <v>0.9023302634225969</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2939</v>
@@ -5277,19 +5277,19 @@
         <v>3115644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3076422</v>
+        <v>3074081</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3155631</v>
+        <v>3150745</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8918804182834308</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8806528258011745</v>
+        <v>0.879982713904877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9033269533605944</v>
+        <v>0.9019282740387875</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5779</v>
@@ -5298,19 +5298,19 @@
         <v>6089530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6032975</v>
+        <v>6034771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6137655</v>
+        <v>6143831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8914765112423625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8831971612291992</v>
+        <v>0.8834601454924936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8985217386310858</v>
+        <v>0.8994259202919497</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>268460</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>239989</v>
+        <v>237676</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>301579</v>
+        <v>300933</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08043754483945206</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07190694561649771</v>
+        <v>0.07121396924431854</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09036094802263929</v>
+        <v>0.09016728776925019</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>252</v>
@@ -5348,19 +5348,19 @@
         <v>269849</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>237805</v>
+        <v>236500</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>304410</v>
+        <v>301625</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07724663712936407</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06807390371096711</v>
+        <v>0.0677002176133777</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08714016606744063</v>
+        <v>0.08634273671509361</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>502</v>
@@ -5369,19 +5369,19 @@
         <v>538309</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>495332</v>
+        <v>492683</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>582671</v>
+        <v>586345</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07880568940223859</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0725141825564465</v>
+        <v>0.07212632303059582</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08530011282715173</v>
+        <v>0.0858378877630893</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>95148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77334</v>
+        <v>77470</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>115382</v>
+        <v>118004</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02850871223234915</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02317114199183402</v>
+        <v>0.02321197311452182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0345713581016393</v>
+        <v>0.0353571377027411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -5419,19 +5419,19 @@
         <v>107850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87415</v>
+        <v>88703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129072</v>
+        <v>132457</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0308729445872051</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02502337952558688</v>
+        <v>0.02539188483820126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03694786834986052</v>
+        <v>0.03791690351091849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -5440,19 +5440,19 @@
         <v>202997</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176007</v>
+        <v>176827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>233818</v>
+        <v>233829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02971779935539894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02576648019972862</v>
+        <v>0.02588656570463399</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03422973269527348</v>
+        <v>0.03423133440598309</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>463721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>450418</v>
+        <v>449861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>474141</v>
+        <v>474126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9361831270916616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9093261074252842</v>
+        <v>0.908200874485639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9572187844298473</v>
+        <v>0.9571883384656458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>804</v>
@@ -5805,19 +5805,19 @@
         <v>580695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>568057</v>
+        <v>570203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>590019</v>
+        <v>590009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9406234377177325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9201517750203916</v>
+        <v>0.9236290900270265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9557271419928559</v>
+        <v>0.9557113862291898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1228</v>
@@ -5826,19 +5826,19 @@
         <v>1044416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1028011</v>
+        <v>1027558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1057795</v>
+        <v>1060058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9386467473620683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9239027601035349</v>
+        <v>0.9234955861939133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9506706125503428</v>
+        <v>0.9527041585873415</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>24135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15403</v>
+        <v>14537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36239</v>
+        <v>34904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04872472076489202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0310960012675873</v>
+        <v>0.02934772922059799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07316043967474523</v>
+        <v>0.07046671478078698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -5876,19 +5876,19 @@
         <v>30342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22049</v>
+        <v>22112</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41412</v>
+        <v>40709</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04914893924011802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03571593969220126</v>
+        <v>0.03581824915685148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06708065651858813</v>
+        <v>0.0659407038079575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -5897,19 +5897,19 @@
         <v>54477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42160</v>
+        <v>41824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68207</v>
+        <v>70331</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04896009016191382</v>
+        <v>0.04896009016191383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03789014946944188</v>
+        <v>0.03758845471402107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06129941653731809</v>
+        <v>0.06320886704867286</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>7476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3148</v>
+        <v>3141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16263</v>
+        <v>17204</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01509215214344638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00635475929115739</v>
+        <v>0.006341165162036236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03283181098958951</v>
+        <v>0.03473139404771798</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -5947,19 +5947,19 @@
         <v>6314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3177</v>
+        <v>3168</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12320</v>
+        <v>11539</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01022762304214951</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005145544932481589</v>
+        <v>0.005131246069105232</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01995624662396753</v>
+        <v>0.01869173611273894</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -5968,19 +5968,19 @@
         <v>13790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8178</v>
+        <v>7588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23442</v>
+        <v>22747</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01239316247601774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007350059699877575</v>
+        <v>0.006819997738949226</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02106772361720936</v>
+        <v>0.02044374843571592</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>907680</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888053</v>
+        <v>890098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921673</v>
+        <v>921625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9453647737270998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9249232838553182</v>
+        <v>0.927052876322607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9599386848879935</v>
+        <v>0.9598886241514357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1533</v>
@@ -6093,19 +6093,19 @@
         <v>1060674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1045991</v>
+        <v>1044981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072681</v>
+        <v>1071794</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9519596404231897</v>
+        <v>0.9519596404231895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9387809308722487</v>
+        <v>0.9378749850607572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9627354015768903</v>
+        <v>0.9619395936904763</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2394</v>
@@ -6114,19 +6114,19 @@
         <v>1968354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1946553</v>
+        <v>1944010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1987681</v>
+        <v>1987341</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9489071124595881</v>
+        <v>0.9489071124595883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9383969981668733</v>
+        <v>0.9371714083352534</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9582241189757468</v>
+        <v>0.9580604397937088</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>44290</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31510</v>
+        <v>31888</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>61707</v>
+        <v>62403</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0461284854616719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03281798165678295</v>
+        <v>0.03321198859278403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06426866909929864</v>
+        <v>0.06499422980741994</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -6164,19 +6164,19 @@
         <v>45425</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34306</v>
+        <v>34825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59561</v>
+        <v>61096</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04076949226187308</v>
+        <v>0.04076949226187309</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0307901565459107</v>
+        <v>0.03125536901857511</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0534564015091088</v>
+        <v>0.05483358422916525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>102</v>
@@ -6185,19 +6185,19 @@
         <v>89715</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73738</v>
+        <v>72883</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110513</v>
+        <v>110540</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04324997857842511</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03554783357402019</v>
+        <v>0.03513550590453462</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0532762012879136</v>
+        <v>0.05328940209844413</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>8168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3337</v>
+        <v>3019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23225</v>
+        <v>21619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008506740811228403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003475685764623941</v>
+        <v>0.003144383006534468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02418916077549761</v>
+        <v>0.0225161455443532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -6235,19 +6235,19 @@
         <v>8101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4417</v>
+        <v>4436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13871</v>
+        <v>14403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007270867314937402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003964136918300793</v>
+        <v>0.003981010507201348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0124489498180617</v>
+        <v>0.01292697030474441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -6256,19 +6256,19 @@
         <v>16269</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9635</v>
+        <v>9210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29492</v>
+        <v>29159</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007842908961986743</v>
+        <v>0.007842908961986745</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004645017942012868</v>
+        <v>0.004440016591893059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01421740205355647</v>
+        <v>0.01405685525092647</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>1015390</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>999969</v>
+        <v>997601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1025983</v>
+        <v>1025234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9702917091300777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9555553510137981</v>
+        <v>0.9532927834295976</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9804139461751817</v>
+        <v>0.9796988104698877</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1465</v>
@@ -6381,19 +6381,19 @@
         <v>1010654</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>995981</v>
+        <v>995931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1019865</v>
+        <v>1019715</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9679813614376989</v>
+        <v>0.9679813614376986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9539283819205721</v>
+        <v>0.9538803674911169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9768037601637816</v>
+        <v>0.9766596412509557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2465</v>
@@ -6402,19 +6402,19 @@
         <v>2026044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2005982</v>
+        <v>2007320</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2039064</v>
+        <v>2041382</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9691378586605371</v>
+        <v>0.969137858660537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9595416864212593</v>
+        <v>0.9601813021211535</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9753657860129044</v>
+        <v>0.9764749687551555</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>26643</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16915</v>
+        <v>17380</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42684</v>
+        <v>42960</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02545978015760979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01616359333118055</v>
+        <v>0.01660849373098959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04078801516466669</v>
+        <v>0.0410518012618933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -6452,19 +6452,19 @@
         <v>26247</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17800</v>
+        <v>18777</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38092</v>
+        <v>38744</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02513903287274127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01704861106937533</v>
+        <v>0.01798429520514492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03648389083163448</v>
+        <v>0.03710770522748805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -6473,19 +6473,19 @@
         <v>52890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40376</v>
+        <v>39813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72699</v>
+        <v>69952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02529959024053789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01931327450226535</v>
+        <v>0.0190441676587961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03477469270220662</v>
+        <v>0.03346107725348912</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>4446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10666</v>
+        <v>10722</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004248510712312404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001447255031772833</v>
+        <v>0.00143711202043305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01019233265550282</v>
+        <v>0.01024542933599222</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -6523,19 +6523,19 @@
         <v>7183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3287</v>
+        <v>3074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18845</v>
+        <v>17094</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.006879605689560092</v>
+        <v>0.006879605689560091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003148419282847902</v>
+        <v>0.002944150890701737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01804969361814396</v>
+        <v>0.01637186902671872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -6544,19 +6544,19 @@
         <v>11629</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6503</v>
+        <v>5876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21480</v>
+        <v>22822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005562551098925075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003110605583320173</v>
+        <v>0.002810941673188047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01027472544299952</v>
+        <v>0.01091645351562352</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>911091</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>890685</v>
+        <v>892701</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>925427</v>
+        <v>925804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9344825127831329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9135525866968656</v>
+        <v>0.9156208602024106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9491868666676073</v>
+        <v>0.9495739891908039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1236</v>
@@ -6669,19 +6669,19 @@
         <v>846571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>829884</v>
+        <v>830304</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>858067</v>
+        <v>858273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9376804157262888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9191975633289962</v>
+        <v>0.9196632679548462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9504139001715776</v>
+        <v>0.9506417744064404</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2121</v>
@@ -6690,19 +6690,19 @@
         <v>1757661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1733966</v>
+        <v>1732071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1777368</v>
+        <v>1776629</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9360200431529057</v>
+        <v>0.9360200431529055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9234013105137118</v>
+        <v>0.9223921157144318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9465145754297467</v>
+        <v>0.9461208908216538</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>35138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24385</v>
+        <v>24616</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49117</v>
+        <v>49381</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03604008918051595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02501134136931249</v>
+        <v>0.02524813314439267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05037813288829304</v>
+        <v>0.05064839450359999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -6740,19 +6740,19 @@
         <v>36110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27012</v>
+        <v>26400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51339</v>
+        <v>49327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03999672653820457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02991916529190638</v>
+        <v>0.02924089945838707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05686451975220026</v>
+        <v>0.05463546336017353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -6761,19 +6761,19 @@
         <v>71248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56684</v>
+        <v>55800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>91032</v>
+        <v>90512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03794241398766595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03018630331045302</v>
+        <v>0.02971537466405463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04847771387431037</v>
+        <v>0.04820101932875689</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>28740</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18850</v>
+        <v>19072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43617</v>
+        <v>42702</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02947739803635123</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01933443321097804</v>
+        <v>0.01956122219580168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0447368206373451</v>
+        <v>0.04379804351538368</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -6811,19 +6811,19 @@
         <v>20154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13313</v>
+        <v>13052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29716</v>
+        <v>29812</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02232285773550655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01474594123983175</v>
+        <v>0.01445629512633876</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03291408036557784</v>
+        <v>0.03301988856878299</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -6832,19 +6832,19 @@
         <v>48893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36173</v>
+        <v>36435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65844</v>
+        <v>65655</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02603754285942846</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01926372508492057</v>
+        <v>0.01940279390822216</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03506450307924882</v>
+        <v>0.03496346882442136</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3297882</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3266979</v>
+        <v>3265627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3327506</v>
+        <v>3323287</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.948507701803161</v>
+        <v>0.9485077018031609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9396196741758176</v>
+        <v>0.9392307812314953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9570280992423755</v>
+        <v>0.9558146342798433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5038</v>
@@ -6957,19 +6957,19 @@
         <v>3498594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3473034</v>
+        <v>3474560</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3521743</v>
+        <v>3522004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9510999976184964</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9441515819548699</v>
+        <v>0.9445663253777515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9573932594203018</v>
+        <v>0.9574640825864342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8208</v>
@@ -6978,19 +6978,19 @@
         <v>6796475</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6756663</v>
+        <v>6757863</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6830082</v>
+        <v>6831421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9498403599205955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9442763237842711</v>
+        <v>0.9444441039446884</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9545371117912125</v>
+        <v>0.9547241884141419</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>130206</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>106670</v>
+        <v>110075</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>156998</v>
+        <v>159764</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03744860021099928</v>
+        <v>0.03744860021099927</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03067948551348234</v>
+        <v>0.03165890235193682</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0451544880301925</v>
+        <v>0.04595005357972667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>192</v>
@@ -7028,19 +7028,19 @@
         <v>138125</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>117950</v>
+        <v>117243</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>160914</v>
+        <v>162303</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03754963799247928</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03206506779533894</v>
+        <v>0.03187265905981274</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04374469266789696</v>
+        <v>0.0441224133363244</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -7049,19 +7049,19 @@
         <v>268331</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>238847</v>
+        <v>235431</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>303930</v>
+        <v>302971</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03750054213015077</v>
+        <v>0.03750054213015076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03338004950321549</v>
+        <v>0.03290261935910471</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04247568187465948</v>
+        <v>0.04234173389881871</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>48829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33926</v>
+        <v>34419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65242</v>
+        <v>66029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01404369798583968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00975744778840924</v>
+        <v>0.009899317426712306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01876438568095619</v>
+        <v>0.01899064341517539</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -7099,19 +7099,19 @@
         <v>41752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31150</v>
+        <v>31696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55427</v>
+        <v>54459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0113503643890243</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008468168026802581</v>
+        <v>0.008616507099493197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01506791565144627</v>
+        <v>0.01480466683952047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -7120,19 +7120,19 @@
         <v>90581</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72282</v>
+        <v>73396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111652</v>
+        <v>115282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01265909794925387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01010172271874973</v>
+        <v>0.01025742869609248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01560387165918638</v>
+        <v>0.01611115537549651</v>
       </c>
     </row>
     <row r="23">
